--- a/NOTE.xlsx
+++ b/NOTE.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legion\Desktop\Web_giup_viec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED179674-F807-448A-B067-E63A273C8C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC868499-CF12-4F18-B872-871479CC7B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Home" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang chủ" sheetId="1" r:id="rId1"/>
+    <sheet name="Dịch vụ" sheetId="2" r:id="rId2"/>
+    <sheet name="Tuyển dụng" sheetId="4" r:id="rId3"/>
+    <sheet name="Về chúng tôi" sheetId="5" r:id="rId4"/>
+    <sheet name="Liên hệ" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,76 +29,292 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="93">
   <si>
     <t>Danh mục</t>
   </si>
   <si>
-    <t>Text gốc</t>
-  </si>
-  <si>
-    <t>Text chỉnh sửa</t>
-  </si>
-  <si>
     <t>Logo</t>
   </si>
   <si>
     <t>Thanh menu</t>
   </si>
   <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Career</t>
-  </si>
-  <si>
-    <t>About Us</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Logo SUQ bên trái</t>
-  </si>
-  <si>
-    <t>Logo Facebook bên phải</t>
-  </si>
-  <si>
     <t>Banner</t>
   </si>
   <si>
-    <t>// For Over 10 Years, …</t>
-  </si>
-  <si>
-    <t>Enterprise Apps Development</t>
-  </si>
-  <si>
-    <t>We are professional  software engineeres …</t>
-  </si>
-  <si>
     <t>Menu Service</t>
   </si>
   <si>
-    <t>Web Development</t>
-  </si>
-  <si>
-    <t>We carry more than just good coding skills. Our experience and support service make us stand out from other competitors.</t>
-  </si>
-  <si>
-    <t>Mobile Development</t>
-  </si>
-  <si>
-    <t>Create complex enterprise software, ensure reliable software integration, modernise your legacy system.</t>
-  </si>
-  <si>
-    <t>UI/UX Design</t>
+    <t>Logo tạm thời</t>
+  </si>
+  <si>
+    <t>Địa chỉ email bên trái</t>
+  </si>
+  <si>
+    <t>Số điện thoại bên phải</t>
+  </si>
+  <si>
+    <t>Dịch vụ</t>
+  </si>
+  <si>
+    <t>Tuyển dụng</t>
+  </si>
+  <si>
+    <t>Về chúng tôi</t>
+  </si>
+  <si>
+    <t>Liên hệ</t>
+  </si>
+  <si>
+    <t>// GIÚP VIỆC AN YÊN</t>
+  </si>
+  <si>
+    <t>DỊch vu cung ứng giúp việc uy tín</t>
+  </si>
+  <si>
+    <t>Với phương châm uy tín – chất lượng – nhanh chóng, công ty giúp việc An Yên đã giúp nhiều chị em tìm được công việc lương cao, nhiều khách hàng là các công ty, gia đình tìm được người giúp việc vừa ý.</t>
+  </si>
+  <si>
+    <t>Dịch vụ của chúng tôi</t>
+  </si>
+  <si>
+    <t>Chúng tôi đem đến các dịch vụ giúp việc chất lượng</t>
+  </si>
+  <si>
+    <t>Giúp việc nhà</t>
+  </si>
+  <si>
+    <t>Giúp việc nấu ăn, dọn dẹp nhà cửa, làm các công việc phụ trợ trong gia đình - Làm việc tại nhà riêng, chung cư ....</t>
+  </si>
+  <si>
+    <t>Chăm sóc người bệnh</t>
+  </si>
+  <si>
+    <t>Chăm sóc người bệnh chuyên nghiệp - đang điều trị tại bệnh viện hoặc tại nhà theo yêu cầu của gia chủ và bác sĩ.</t>
+  </si>
+  <si>
+    <t>Chăm sóc trẻ em</t>
+  </si>
+  <si>
+    <t>Giúp việc chăm bé sơ sinh, bé lớn tuổi theo yêu của gia đình. Nấu ăn, giặt giũ, chơi cùng trẻ toàn thời gian...</t>
+  </si>
+  <si>
+    <t>Dọn dẹp, tạp vụ</t>
+  </si>
+  <si>
+    <t>Giúp việc đảm nhận các công việc dọn dẹp vệ sinh văn phòng, công ty hoặc tại các doanh nghiệp theo yêu cầu.</t>
+  </si>
+  <si>
+    <t>Giúp việc theo giờ</t>
+  </si>
+  <si>
+    <t>Giúp việc theo yêu cầu và theo giờ - Cố định hàng ngày, hàng tuần hoặc theo giờ linh động tuỳ vào yêu cầu của gia chủ.</t>
+  </si>
+  <si>
+    <t>Giúp việc ngày Tết</t>
+  </si>
+  <si>
+    <t>Dịch vụ giúp việc trong dịp tết âm lịch hàng năm. Đảm nhiệm các nhiệm vụ nấu ăn dọn dẹp hay soạn sửa mâm cỗ ngày Tết!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ảnh:  để nhiều ảnh chạy liên tục, hay chỉ cần 1 ảnh cố định </t>
+  </si>
+  <si>
+    <t>Giới thiệu</t>
+  </si>
+  <si>
+    <t>Vì sao chọn chúng tôi</t>
+  </si>
+  <si>
+    <t>Những giá trị đem đến cho bạn</t>
+  </si>
+  <si>
+    <t>Đến với dịch vụ giúp việc của chúng tôi, bạn sẽ nhận được sự chuyên nghiệp và tận tâm. Với các dịch vụ dọn dẹp, nấu nướng, trông trẻ và chăm sóc người cao tuổi, ... giúp bạn tiết kiệm thời gian và tận hưởng cuộc sống hơn.</t>
+  </si>
+  <si>
+    <t>Thông tin</t>
+  </si>
+  <si>
+    <t>20+</t>
+  </si>
+  <si>
+    <t>Đối tác hỗ trợ đào tạo uy tín</t>
+  </si>
+  <si>
+    <t>Người giúp việc được đào tạo qua các chương trình đảm bảo từ trung tâm hoặc các đối tác tin cậy, đảm bảo chất lượng người giúp việc, cũng như giúp cho người giúp việc tìm được địa chỉ làm việc uy tín.</t>
+  </si>
+  <si>
+    <t>100+</t>
+  </si>
+  <si>
+    <t>Khách hàng tin tưởng</t>
+  </si>
+  <si>
+    <t>Chúng tôi đem tới dịch vụ tốt cho các gia đình và doanh nghiệp, tối ưu chi phí cho gia chủ và hỗ trợ tốt cho người giúp việc</t>
+  </si>
+  <si>
+    <t>Chân trang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Logo tạm thời bên trái</t>
+  </si>
+  <si>
+    <t>Địa chỉ : Thanh Xuân, Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>Text demo</t>
+  </si>
+  <si>
+    <t>Text chỉnh sửa lại</t>
+  </si>
+  <si>
+    <t>Menu dịch vụ</t>
+  </si>
+  <si>
+    <t> Chúng tôi luôn sẵn sàng trả lời các câu hỏi của bạn</t>
+  </si>
+  <si>
+    <t>CẦN TƯ VẤN ?</t>
+  </si>
+  <si>
+    <t>LIÊN HỆ VỚI CHÚNG TÔI</t>
+  </si>
+  <si>
+    <t>Text sửa lại</t>
+  </si>
+  <si>
+    <t>Người lao động có thể tham gia vào những vị trí sau</t>
+  </si>
+  <si>
+    <t>Các vị trí tuyển dụng</t>
+  </si>
+  <si>
+    <t>Không thể tìm thấy công việc phù hợp ? Hãy gọi ngay cho chúng tôi tới số 0xxx.xxx.xxx để trao đổi chi tiết.</t>
+  </si>
+  <si>
+    <t>Người giúp việc toàn thời gian</t>
+  </si>
+  <si>
+    <t>Bạn sẽ đảm nhiệm công việc toàn thời gian. Chúng tôi phụ trách việc tìm kiếm và kết nối với các gia chủ có nhu cầu phù hợp, đảm bảo công việc ổn định, cũng như nơi ăn ở và lưu trú dài hạn tại gia đình cho người giúp việc.</t>
+  </si>
+  <si>
+    <t>Nội trợ, trông trẻ, dọn dẹp, ...</t>
+  </si>
+  <si>
+    <t> 6.000.000 - 8.000.000 VND</t>
+  </si>
+  <si>
+    <t>Toàn thời gian</t>
+  </si>
+  <si>
+    <t> Hà Nội</t>
+  </si>
+  <si>
+    <t> Tháng 1, 2025</t>
+  </si>
+  <si>
+    <t>Người giúp việc theo giờ</t>
+  </si>
+  <si>
+    <t>Bạn đảm nhiệm công việc theo giờ, bao gồm các công việc theo lịch trình hàng ngày đã thoả thuận với gia chủ, hoặc các công việc ngắn hạn và nhận lương trong ngày.</t>
+  </si>
+  <si>
+    <t>Dọn dẹp, tạp vụ, ...</t>
+  </si>
+  <si>
+    <t> Thoả thuận</t>
+  </si>
+  <si>
+    <t> Bán thời gian</t>
+  </si>
+  <si>
+    <t>Người giúp việc ngày Tết</t>
+  </si>
+  <si>
+    <t>Bạn đảm nhiệm công việc trong các ngày Tết âm lịch, hỗ trợ gia chủ sắm sửa, dọn dẹp và trang trí, cũng như các công việc nội trợ trong dịp Tết nguyên đán. Thời gian làm việc thoả thuận, có thể làm việc toàn thời gian, lưu trú tại gia đình và làm xuyên Tết.</t>
+  </si>
+  <si>
+    <t>Nội trợ, trông trẻ, mua sắm, ...</t>
+  </si>
+  <si>
+    <t> Các ngày Tết âm lịch hoặc các dịp lễ trong năm</t>
+  </si>
+  <si>
+    <t> Các ngày lễ, Tết.</t>
+  </si>
+  <si>
+    <t>Vị trí</t>
+  </si>
+  <si>
+    <t>Giá trị của chúng tôi</t>
+  </si>
+  <si>
+    <t>Nhiệm vụ</t>
+  </si>
+  <si>
+    <t>Cung cấp người giúp việc đã qua kiểm tra tư cách và kỹ năng, người giúp việc có tư cách đạo đức tốt, thật thà, chăm chỉ, biết việc, có ý thức tốt. Đảm bảo sự uy tín và tin cậy cho các gia chủ khi thuê người giúp việc tại trung tâm.</t>
+  </si>
+  <si>
+    <t>Nguồn gốc rõ ràng, có giấy tờ chứng minh, là người thân quen của các thành viên Trung tâm, chủ yếu đến từ các tỉnh thành phía bắc, lân cận với Hà Nội. Về phía gia chủ, chúng tôi đảm bảo giúp người lao động tìm được các gia đình phù hợp, thân thiện và đáng tin cậy</t>
+  </si>
+  <si>
+    <t>Chi phí</t>
+  </si>
+  <si>
+    <t>Trách nhiệm</t>
+  </si>
+  <si>
+    <t>// THÔNG TIN</t>
+  </si>
+  <si>
+    <t>Liên hệ với chúng tôi</t>
+  </si>
+  <si>
+    <t>Hãy gọi điện, nhắn tin hoặc gửi email cho chúng tôi. Chúng tôi sẽ phản hồi sớm nhất có thể để giúp bạn tìm người giúp việc hoặc tìm được gia đình phù hợp.</t>
+  </si>
+  <si>
+    <t>Địa chỉ:</t>
+  </si>
+  <si>
+    <t>Thanh Xuân, Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>giupviectot@gmail.com</t>
+  </si>
+  <si>
+    <t>Điệnt thoại:</t>
+  </si>
+  <si>
+    <t>0xxx.xxx.xxx</t>
+  </si>
+  <si>
+    <t>Để lại thông tin của bạn</t>
+  </si>
+  <si>
+    <t>Thông tin của bạn sẽ chỉ phục vụ cho mục đích liên lạc và sẽ được chúng tôi bảo đảm</t>
+  </si>
+  <si>
+    <t>Họ tên*</t>
+  </si>
+  <si>
+    <t>Email hoặc số điện thoại*</t>
+  </si>
+  <si>
+    <t>Nội dung (tìm người giúp việc hoặc tìm công việc)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +333,27 @@
     <font>
       <sz val="10"/>
       <color theme="8" tint="-0.499984740745262"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF242021"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -213,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -224,6 +465,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -239,8 +483,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,17 +809,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="97.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="62.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="91.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="95.33203125" style="2" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -541,183 +828,1307 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="10"/>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-      <c r="B6" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="8"/>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="7"/>
-      <c r="B9" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11" t="s">
         <v>14</v>
       </c>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8"/>
+      <c r="B29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="8"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="8"/>
+      <c r="B31" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="8"/>
+      <c r="B34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A8"/>
+    <mergeCell ref="A13:A32"/>
+    <mergeCell ref="A9:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6533479-3054-4E3E-8463-FE1E02107DB5}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B21" sqref="A1:C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="91.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="95.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="22.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="8"/>
+      <c r="B3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>16</v>
+    <row r="11" spans="1:3" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="9" t="s">
-        <v>17</v>
+    <row r="12" spans="1:3" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="8"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
+      <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+    <row r="18" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="3" t="s">
+        <v>49</v>
+      </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="16"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="16"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="16"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="16"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="15"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="16"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="19"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48252641-84F8-4DC1-B729-8A251659F756}">
+  <dimension ref="A1:C32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="88.77734375" customWidth="1"/>
+    <col min="3" max="3" width="89" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="24"/>
+      <c r="B2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="26"/>
+      <c r="B4" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="9"/>
+      <c r="B12" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8"/>
+      <c r="B23" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="8"/>
+      <c r="B24" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="8"/>
+      <c r="B26" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="8"/>
+      <c r="B27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A14:A20"/>
+    <mergeCell ref="A22:A28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A94C34B-C7E1-4319-8049-AE900A389297}">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="97.44140625" customWidth="1"/>
+    <col min="3" max="3" width="89.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F86200-319B-45C0-97B1-7DF5B82B77D1}">
+  <dimension ref="A1:C27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="98" customWidth="1"/>
+    <col min="3" max="3" width="88.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="20"/>
+    </row>
+    <row r="4" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="20"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="20"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="20"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="20"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
+      <c r="B9" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" s="20"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="20"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="20"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="20"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="20"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="20"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>